--- a/biology/Médecine/Liste_des_villes_thermales_au_Royaume-Uni/Liste_des_villes_thermales_au_Royaume-Uni.xlsx
+++ b/biology/Médecine/Liste_des_villes_thermales_au_Royaume-Uni/Liste_des_villes_thermales_au_Royaume-Uni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Angleterre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Askern
 Bath
@@ -556,7 +570,9 @@
           <t>Pays de Galles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Builth Wells
 Llandrindod Wells
@@ -591,8 +607,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Angleterre
-Bakewell (Derbyshire)
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bakewell (Derbyshire)
 Clifton/Hotwells (Bristol)
 Ewell (Surrey)
 Hovingham (Yorkshire du Nord)
@@ -602,13 +623,81 @@
 Ripon (Yorkshire du Nord)
 Scarborough (Yorkshire du Nord)
 Stoney Middleton, Derbyshire
-Wigan (Greater Manchester)
-Écosse
-Strathpeffer
+Wigan (Greater Manchester)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_thermales_au_Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_thermales_au_Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anciennes villes thermales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Strathpeffer
 Rothesay
-Crieff
-Pays de Galles
-Taff's Well Thermal Spring, près de Cardiff
+Crieff</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_thermales_au_Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_thermales_au_Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anciennes villes thermales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pays de Galles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taff's Well Thermal Spring, près de Cardiff
  Portail du Royaume-Uni   Portail de la médecine   Portail de l’eau                   </t>
         </is>
       </c>
